--- a/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_5_hlc_jig.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_5_hlc_jig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F114B2-31D4-4F28-98FE-37B7A68E0182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E1218F-2965-4635-9495-909E5C62AF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
   <si>
     <t>type</t>
   </si>
@@ -353,12 +353,6 @@
     <t>lga</t>
   </si>
   <si>
-    <t>ng_oncho_2408_5_hlc_jig</t>
-  </si>
-  <si>
-    <t>(Jigawa) 5. Human Landing Catches</t>
-  </si>
-  <si>
     <t>JIGAWA</t>
   </si>
   <si>
@@ -414,6 +408,66 @@
   </si>
   <si>
     <t>JIG_GAR_A_024</t>
+  </si>
+  <si>
+    <t>(Jigawa) 5. Human Landing Catches V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_5_hlc_jig_v2</t>
+  </si>
+  <si>
+    <t>AUYO</t>
+  </si>
+  <si>
+    <t>KAZAURE</t>
+  </si>
+  <si>
+    <t>KIRIKASAMA</t>
+  </si>
+  <si>
+    <t>MALLAM MADORI</t>
+  </si>
+  <si>
+    <t>RINGIM</t>
+  </si>
+  <si>
+    <t>TAURA</t>
+  </si>
+  <si>
+    <t>HADIYAU</t>
+  </si>
+  <si>
+    <t>GADA</t>
+  </si>
+  <si>
+    <t>TURABU</t>
+  </si>
+  <si>
+    <t>ARKI</t>
+  </si>
+  <si>
+    <t>GABARIN</t>
+  </si>
+  <si>
+    <t>DAURAWA</t>
+  </si>
+  <si>
+    <t>JIG_KIR_A_025</t>
+  </si>
+  <si>
+    <t>JIG_KAZ_A_026</t>
+  </si>
+  <si>
+    <t>JIG_RIN_A_027</t>
+  </si>
+  <si>
+    <t>JIG_MAM_A_028</t>
+  </si>
+  <si>
+    <t>JIG_AUY_A_029</t>
+  </si>
+  <si>
+    <t>JIG_TAU_A_030</t>
   </si>
 </sst>
 </file>
@@ -1375,8 +1429,8 @@
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD47"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1648,10 +1702,10 @@
         <v>101</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1663,13 +1717,13 @@
         <v>105</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1677,13 +1731,13 @@
         <v>105</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1691,13 +1745,13 @@
         <v>105</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1705,13 +1759,13 @@
         <v>105</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1719,357 +1773,528 @@
         <v>105</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B44" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C44" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B45" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E45" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B46" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C46" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B47" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E52" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:6">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
     </row>
-    <row r="54" spans="1:3">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="1:3">
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="21"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:6">
       <c r="A67" s="21"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:6">
       <c r="A68" s="21"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:6">
       <c r="A69" s="21"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:6">
       <c r="A70" s="21"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:6">
       <c r="A71" s="21"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:6">
       <c r="A72" s="21"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:6">
       <c r="A73" s="21"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:6">
       <c r="A74" s="21"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:6">
       <c r="A75" s="21"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:6">
       <c r="A76" s="21"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:6">
       <c r="A77" s="21"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:6">
       <c r="A78" s="21"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:6">
       <c r="A79" s="21"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:6">
       <c r="A80" s="21"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -2150,7 +2375,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2172,10 +2397,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
